--- a/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD18B05-B5FA-42F6-87ED-013382BBBFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A1EF2B-A728-454E-B5B8-E1DC2EF15703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FCAE8C5-AC2B-490C-82E9-62F9EF3A49EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6E0085D-A7B4-4D78-A5CC-715162680BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
-  <si>
-    <t>Hogares con personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+  <si>
+    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1150 +77,1129 @@
     <t>33,08%</t>
   </si>
   <si>
-    <t>24,9%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>33,67%</t>
   </si>
   <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>79,39%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>74,82%</t>
+    <t>74,58%</t>
   </si>
   <si>
     <t>86,15%</t>
@@ -1238,10 +1217,7 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>20,61%</t>
   </si>
   <si>
     <t>21,14%</t>
@@ -1250,7 +1226,7 @@
     <t>13,85%</t>
   </si>
   <si>
-    <t>25,18%</t>
+    <t>25,42%</t>
   </si>
   <si>
     <t>22,37%</t>
@@ -1265,103 +1241,109 @@
     <t>76,36%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>71,99%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>28,01%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944D25-A9C1-47D4-9F0F-5F6FF5150AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017340B4-0737-4E90-99C0-BEEEDCDF75F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2362,13 +2344,13 @@
         <v>272500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>361</v>
@@ -2377,13 +2359,13 @@
         <v>353494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>623</v>
@@ -2392,13 +2374,13 @@
         <v>625994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2395,13 @@
         <v>406009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -2428,13 +2410,13 @@
         <v>330347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>714</v>
@@ -2443,13 +2425,13 @@
         <v>736356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2499,13 @@
         <v>365052</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>503</v>
@@ -2532,13 +2514,13 @@
         <v>526053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>889</v>
@@ -2547,13 +2529,13 @@
         <v>891105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2550,13 @@
         <v>577170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>494</v>
@@ -2583,13 +2565,13 @@
         <v>512559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1102</v>
@@ -2598,13 +2580,13 @@
         <v>1089729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2654,13 @@
         <v>1239413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1609</v>
@@ -2687,13 +2669,13 @@
         <v>1657104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2834</v>
@@ -2702,13 +2684,13 @@
         <v>2896516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2705,13 @@
         <v>2037131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1688</v>
@@ -2738,28 +2720,28 @@
         <v>1722094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3677</v>
       </c>
       <c r="N20" s="7">
-        <v>3759224</v>
+        <v>3759225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2783,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2815,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16C5BD-0E4B-4291-B2A6-231AE8D6F43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC85BAB-A3F7-4A4C-B913-0F475F1164AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2942,13 @@
         <v>48108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -2975,13 +2957,13 @@
         <v>55402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2990,13 +2972,13 @@
         <v>103510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2993,13 @@
         <v>67657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -3026,13 +3008,13 @@
         <v>56503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -3041,13 +3023,13 @@
         <v>124160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3097,13 @@
         <v>253510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -3130,13 +3112,13 @@
         <v>286280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>506</v>
@@ -3145,13 +3127,13 @@
         <v>539790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3148,13 @@
         <v>334194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -3181,13 +3163,13 @@
         <v>298865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>597</v>
@@ -3196,13 +3178,13 @@
         <v>633059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3252,13 @@
         <v>396575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -3285,13 +3267,13 @@
         <v>531672</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>845</v>
@@ -3300,13 +3282,13 @@
         <v>928247</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3303,13 @@
         <v>621372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>457</v>
@@ -3336,13 +3318,13 @@
         <v>500512</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
@@ -3351,13 +3333,13 @@
         <v>1121884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3407,13 @@
         <v>300226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3440,13 +3422,13 @@
         <v>377355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>605</v>
@@ -3455,13 +3437,13 @@
         <v>677581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3458,13 @@
         <v>457397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3491,13 +3473,13 @@
         <v>399819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>789</v>
@@ -3506,13 +3488,13 @@
         <v>857216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3562,13 @@
         <v>409984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -3595,13 +3577,13 @@
         <v>537541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>899</v>
@@ -3610,10 +3592,10 @@
         <v>947525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>205</v>
@@ -3661,13 +3643,13 @@
         <v>1052115</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3717,13 @@
         <v>1408405</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1652</v>
@@ -3750,13 +3732,13 @@
         <v>1788249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>2958</v>
@@ -3765,13 +3747,13 @@
         <v>3196654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3768,13 @@
         <v>2018374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>1646</v>
@@ -3801,13 +3783,13 @@
         <v>1770060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>3549</v>
@@ -3816,13 +3798,13 @@
         <v>3788434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9EF43E-AEE7-47B5-8596-B888C741C61E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAB3AAC-DA2A-488A-8067-F2DC1CEA6742}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +4005,13 @@
         <v>49889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -4038,13 +4020,13 @@
         <v>64606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -4053,13 +4035,13 @@
         <v>114494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4056,13 @@
         <v>66657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -4089,13 +4071,13 @@
         <v>48754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -4104,13 +4086,13 @@
         <v>115412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4160,13 @@
         <v>231482</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -4193,13 +4175,13 @@
         <v>281027</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>492</v>
@@ -4208,13 +4190,13 @@
         <v>512509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4211,13 @@
         <v>326772</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -4244,13 +4226,13 @@
         <v>278452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4259,13 +4241,13 @@
         <v>605224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4315,13 @@
         <v>419071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -4348,13 +4330,13 @@
         <v>525226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>877</v>
@@ -4363,13 +4345,13 @@
         <v>944297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4366,13 @@
         <v>603360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -4399,13 +4381,13 @@
         <v>517687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1051</v>
@@ -4414,13 +4396,13 @@
         <v>1121047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4470,13 @@
         <v>282203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>328</v>
@@ -4503,13 +4485,13 @@
         <v>356660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>584</v>
@@ -4518,13 +4500,13 @@
         <v>638862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4521,13 @@
         <v>477349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -4554,13 +4536,13 @@
         <v>428351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
@@ -4569,13 +4551,13 @@
         <v>905701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4643,13 +4625,13 @@
         <v>409553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>484</v>
@@ -4658,13 +4640,13 @@
         <v>545448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>890</v>
@@ -4673,13 +4655,13 @@
         <v>955000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4676,13 @@
         <v>528014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>475</v>
@@ -4709,13 +4691,13 @@
         <v>498331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1001</v>
@@ -4724,13 +4706,13 @@
         <v>1026346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4780,13 @@
         <v>1392196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>1628</v>
@@ -4813,13 +4795,13 @@
         <v>1772966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>2954</v>
@@ -4828,13 +4810,13 @@
         <v>3165163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4831,13 @@
         <v>2002154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>1710</v>
@@ -4864,13 +4846,13 @@
         <v>1771576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>3615</v>
@@ -4879,13 +4861,13 @@
         <v>3773729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01298513-A827-4304-AAE8-E2A6A0FEEAD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823DCC3-A5C5-46C4-94CE-EAB1AD1C9B30}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5068,13 @@
         <v>71976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>149</v>
@@ -5101,13 +5083,13 @@
         <v>82380</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -5116,13 +5098,13 @@
         <v>154356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5119,13 @@
         <v>30006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5152,13 +5134,13 @@
         <v>48353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -5167,13 +5149,13 @@
         <v>78359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5223,13 @@
         <v>397787</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>658</v>
@@ -5256,13 +5238,13 @@
         <v>438031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>1075</v>
@@ -5271,13 +5253,13 @@
         <v>835818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5274,13 @@
         <v>152036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -5307,13 +5289,13 @@
         <v>181936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>535</v>
@@ -5322,13 +5304,13 @@
         <v>333972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5378,13 @@
         <v>788995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>1011</v>
@@ -5411,13 +5393,13 @@
         <v>731527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>1698</v>
@@ -5426,13 +5408,13 @@
         <v>1520522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5429,13 @@
         <v>250253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -5462,13 +5444,13 @@
         <v>328552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>783</v>
@@ -5477,13 +5459,13 @@
         <v>578805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5533,13 @@
         <v>554927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>763</v>
@@ -5566,13 +5548,13 @@
         <v>689520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>1265</v>
@@ -5581,13 +5563,13 @@
         <v>1244446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5584,13 @@
         <v>173845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5617,13 +5599,13 @@
         <v>184851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -5632,13 +5614,13 @@
         <v>358696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5706,13 +5688,13 @@
         <v>737154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>1064</v>
@@ -5721,13 +5703,13 @@
         <v>788945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1806</v>
@@ -5736,13 +5718,13 @@
         <v>1526099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5739,13 @@
         <v>228249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>498</v>
@@ -5772,13 +5754,13 @@
         <v>361487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -5787,13 +5769,13 @@
         <v>589736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5843,13 @@
         <v>2550838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>3645</v>
@@ -5876,28 +5858,28 @@
         <v>2730403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>6073</v>
       </c>
       <c r="N19" s="7">
-        <v>5281241</v>
+        <v>5281240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5894,13 @@
         <v>834390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>1722</v>
@@ -5927,13 +5909,13 @@
         <v>1105178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>2670</v>
@@ -5942,13 +5924,13 @@
         <v>1939568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,7 +5972,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6004,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A1EF2B-A728-454E-B5B8-E1DC2EF15703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4372C113-921A-4BFF-9139-E8E538A4696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6E0085D-A7B4-4D78-A5CC-715162680BC7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF39980-9DC4-487A-B13D-5CD39E8044D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>33,08%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>35,44%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,922 +107,928 @@
     <t>66,92%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>64,56%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>54,89%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>59,22%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>59,44%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>50,02%</t>
   </si>
   <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
   </si>
   <si>
     <t>49,98%</t>
   </si>
   <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1040,9 +1046,6 @@
     <t>63,01%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
     <t>69,82%</t>
   </si>
   <si>
@@ -1070,9 +1073,6 @@
     <t>30,18%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
     <t>33,67%</t>
   </si>
   <si>
@@ -1100,9 +1100,6 @@
     <t>74,97%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
     <t>68,72%</t>
   </si>
   <si>
@@ -1127,9 +1124,6 @@
     <t>32,8%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
     <t>25,8%</t>
   </si>
   <si>
@@ -1160,9 +1154,6 @@
     <t>70,59%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
     <t>24,08%</t>
   </si>
   <si>
@@ -1182,9 +1173,6 @@
   </si>
   <si>
     <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
   </si>
   <si>
     <t>29,41%</t>
@@ -1755,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017340B4-0737-4E90-99C0-BEEEDCDF75F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96358299-132A-4307-AAF9-95D8569BACE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2675,7 +2663,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>2834</v>
@@ -2684,13 +2672,13 @@
         <v>2896516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,16 +2690,16 @@
         <v>1989</v>
       </c>
       <c r="D20" s="7">
-        <v>2037131</v>
+        <v>2037130</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1688</v>
@@ -2720,13 +2708,13 @@
         <v>1722094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>3677</v>
@@ -2735,13 +2723,13 @@
         <v>3759225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2741,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2797,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC85BAB-A3F7-4A4C-B913-0F475F1164AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CA46E7-512F-4BB8-897A-C12FAB3746A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2930,13 @@
         <v>48108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -2957,13 +2945,13 @@
         <v>55402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2972,13 +2960,13 @@
         <v>103510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2981,13 @@
         <v>67657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -3008,13 +2996,13 @@
         <v>56503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -3023,13 +3011,13 @@
         <v>124160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3085,13 @@
         <v>253510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -3112,13 +3100,13 @@
         <v>286280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>506</v>
@@ -3127,13 +3115,13 @@
         <v>539790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3136,13 @@
         <v>334194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -3163,13 +3151,13 @@
         <v>298865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>597</v>
@@ -3178,13 +3166,13 @@
         <v>633059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3240,13 @@
         <v>396575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -3267,13 +3255,13 @@
         <v>531672</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>845</v>
@@ -3282,13 +3270,13 @@
         <v>928247</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3291,13 @@
         <v>621372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>457</v>
@@ -3318,13 +3306,13 @@
         <v>500512</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
@@ -3333,13 +3321,13 @@
         <v>1121884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3395,13 @@
         <v>300226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3422,13 +3410,13 @@
         <v>377355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>605</v>
@@ -3437,13 +3425,13 @@
         <v>677581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3446,13 @@
         <v>457397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3473,13 +3461,13 @@
         <v>399819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>789</v>
@@ -3488,13 +3476,13 @@
         <v>857216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3550,13 @@
         <v>409984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -3577,13 +3565,13 @@
         <v>537541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>899</v>
@@ -3592,13 +3580,13 @@
         <v>947525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3601,13 @@
         <v>537755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>494</v>
@@ -3628,13 +3616,13 @@
         <v>514360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1014</v>
@@ -3643,13 +3631,13 @@
         <v>1052115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3705,13 @@
         <v>1408405</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1652</v>
@@ -3732,13 +3720,13 @@
         <v>1788249</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>2958</v>
@@ -3747,13 +3735,13 @@
         <v>3196654</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3756,13 @@
         <v>2018374</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>1646</v>
@@ -3783,13 +3771,13 @@
         <v>1770060</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>3549</v>
@@ -3860,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAB3AAC-DA2A-488A-8067-F2DC1CEA6742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D33EC-C56D-4571-9CA7-79937EAFCA66}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4175,10 +4163,10 @@
         <v>281027</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>252</v>
@@ -4226,13 +4214,13 @@
         <v>278452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4318,10 +4306,10 @@
         <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -4330,13 +4318,13 @@
         <v>525226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>877</v>
@@ -4345,13 +4333,13 @@
         <v>944297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4354,13 @@
         <v>603360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -4381,13 +4369,13 @@
         <v>517687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>1051</v>
@@ -4396,13 +4384,13 @@
         <v>1121047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4458,13 @@
         <v>282203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>328</v>
@@ -4485,13 +4473,13 @@
         <v>356660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>584</v>
@@ -4500,13 +4488,13 @@
         <v>638862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4509,13 @@
         <v>477349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -4536,13 +4524,13 @@
         <v>428351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
@@ -4551,13 +4539,13 @@
         <v>905701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4613,13 @@
         <v>409553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>484</v>
@@ -4640,13 +4628,13 @@
         <v>545448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>890</v>
@@ -4655,13 +4643,13 @@
         <v>955000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4664,13 @@
         <v>528014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>475</v>
@@ -4691,13 +4679,13 @@
         <v>498331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>1001</v>
@@ -4816,7 +4804,7 @@
         <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4819,13 @@
         <v>2002154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>1710</v>
@@ -4846,13 +4834,13 @@
         <v>1771576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>3615</v>
@@ -4861,13 +4849,13 @@
         <v>3773729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823DCC3-A5C5-46C4-94CE-EAB1AD1C9B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C13594B-1281-45DA-B166-996DD80616F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5056,13 @@
         <v>71976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>149</v>
@@ -5083,13 +5071,13 @@
         <v>82380</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -5098,13 +5086,13 @@
         <v>154356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5107,13 @@
         <v>30006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5134,13 +5122,13 @@
         <v>48353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -5253,13 +5241,13 @@
         <v>835818</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5262,13 @@
         <v>152036</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -5289,13 +5277,13 @@
         <v>181936</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>535</v>
@@ -5304,13 +5292,13 @@
         <v>333972</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5366,13 @@
         <v>788995</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>1011</v>
@@ -5393,13 +5381,13 @@
         <v>731527</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>1698</v>
@@ -5408,13 +5396,13 @@
         <v>1520522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5417,13 @@
         <v>250253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -5444,13 +5432,13 @@
         <v>328552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>783</v>
@@ -5459,13 +5447,13 @@
         <v>578805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5521,13 @@
         <v>554927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>763</v>
@@ -5548,13 +5536,13 @@
         <v>689520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>1265</v>
@@ -5563,13 +5551,13 @@
         <v>1244446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5572,13 @@
         <v>173845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5599,13 +5587,13 @@
         <v>184851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -5614,13 +5602,13 @@
         <v>358696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5676,13 @@
         <v>737154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>1064</v>
@@ -5703,13 +5691,13 @@
         <v>788945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>1806</v>
@@ -5718,13 +5706,13 @@
         <v>1526099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5727,13 @@
         <v>228249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>498</v>
@@ -5754,13 +5742,13 @@
         <v>361487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -5769,13 +5757,13 @@
         <v>589736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5831,13 @@
         <v>2550838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>3645</v>
@@ -5858,13 +5846,13 @@
         <v>2730403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>6073</v>
@@ -5873,13 +5861,13 @@
         <v>5281240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5882,13 @@
         <v>834390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>1722</v>
@@ -5909,13 +5897,13 @@
         <v>1105178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>2670</v>
@@ -5924,13 +5912,13 @@
         <v>1939568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4372C113-921A-4BFF-9139-E8E538A4696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F19A0A-970D-4BD1-88A5-F7D5AA3DE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8AF39980-9DC4-487A-B13D-5CD39E8044D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F28BC8-4DA4-4EEC-864E-722EE6E3CC92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
-  <si>
-    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1117 +77,1150 @@
     <t>33,08%</t>
   </si>
   <si>
-    <t>24,71%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>70,59%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>29,41%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>79,39%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>74,58%</t>
+    <t>74,82%</t>
   </si>
   <si>
     <t>86,15%</t>
@@ -1205,7 +1238,10 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>20,61%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>21,14%</t>
@@ -1214,7 +1250,7 @@
     <t>13,85%</t>
   </si>
   <si>
-    <t>25,42%</t>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,37%</t>
@@ -1229,109 +1265,103 @@
     <t>76,36%</t>
   </si>
   <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>71,99%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>28,01%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96358299-132A-4307-AAF9-95D8569BACE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A7FADC-1046-44E2-A7ED-D4A95701EC79}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2332,13 +2362,13 @@
         <v>272500</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>361</v>
@@ -2347,13 +2377,13 @@
         <v>353494</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>623</v>
@@ -2362,13 +2392,13 @@
         <v>625994</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2413,13 @@
         <v>406009</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -2398,13 +2428,13 @@
         <v>330347</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>714</v>
@@ -2413,13 +2443,13 @@
         <v>736356</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2505,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2487,13 +2517,13 @@
         <v>365052</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>503</v>
@@ -2502,13 +2532,13 @@
         <v>526053</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>889</v>
@@ -2517,13 +2547,13 @@
         <v>891105</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2568,13 @@
         <v>577170</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>494</v>
@@ -2553,13 +2583,13 @@
         <v>512559</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1102</v>
@@ -2568,13 +2598,13 @@
         <v>1089729</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2672,13 @@
         <v>1239413</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1609</v>
@@ -2657,13 +2687,13 @@
         <v>1657104</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>2834</v>
@@ -2672,7 +2702,7 @@
         <v>2896516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>112</v>
@@ -2690,7 +2720,7 @@
         <v>1989</v>
       </c>
       <c r="D20" s="7">
-        <v>2037130</v>
+        <v>2037131</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -2711,25 +2741,25 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>3677</v>
       </c>
       <c r="N20" s="7">
-        <v>3759225</v>
+        <v>3759224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2771,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2771,7 +2801,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2785,7 +2815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CA46E7-512F-4BB8-897A-C12FAB3746A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738BCB88-80EA-409E-A5BF-458730C49354}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2960,13 @@
         <v>48108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -2945,13 +2975,13 @@
         <v>55402</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2960,13 +2990,13 @@
         <v>103510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3011,13 @@
         <v>67657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -2996,13 +3026,13 @@
         <v>56503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -3011,13 +3041,13 @@
         <v>124160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3115,13 @@
         <v>253510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -3100,13 +3130,13 @@
         <v>286280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>506</v>
@@ -3115,13 +3145,13 @@
         <v>539790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3166,13 @@
         <v>334194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -3151,13 +3181,13 @@
         <v>298865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>597</v>
@@ -3166,13 +3196,13 @@
         <v>633059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3270,13 @@
         <v>396575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -3255,13 +3285,13 @@
         <v>531672</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>845</v>
@@ -3270,13 +3300,13 @@
         <v>928247</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3321,13 @@
         <v>621372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>457</v>
@@ -3306,13 +3336,13 @@
         <v>500512</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1031</v>
@@ -3321,13 +3351,13 @@
         <v>1121884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3425,13 @@
         <v>300226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3410,13 +3440,13 @@
         <v>377355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>605</v>
@@ -3425,13 +3455,13 @@
         <v>677581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3476,13 @@
         <v>457397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3461,13 +3491,13 @@
         <v>399819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>789</v>
@@ -3476,13 +3506,13 @@
         <v>857216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3580,13 @@
         <v>409984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -3565,13 +3595,13 @@
         <v>537541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>899</v>
@@ -3580,13 +3610,13 @@
         <v>947525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3631,13 @@
         <v>537755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>494</v>
@@ -3616,13 +3646,13 @@
         <v>514360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1014</v>
@@ -3631,13 +3661,13 @@
         <v>1052115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3735,13 @@
         <v>1408405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1652</v>
@@ -3720,13 +3750,13 @@
         <v>1788249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>2958</v>
@@ -3735,13 +3765,13 @@
         <v>3196654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3786,13 @@
         <v>2018374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1646</v>
@@ -3771,13 +3801,13 @@
         <v>1770060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>3549</v>
@@ -3786,13 +3816,13 @@
         <v>3788434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D33EC-C56D-4571-9CA7-79937EAFCA66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6749857-68F8-404B-ADFB-1C2B65C30122}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +4023,13 @@
         <v>49889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -4008,13 +4038,13 @@
         <v>64606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -4023,13 +4053,13 @@
         <v>114494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4074,13 @@
         <v>66657</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -4059,13 +4089,13 @@
         <v>48754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -4074,13 +4104,13 @@
         <v>115412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4178,13 @@
         <v>231482</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -4163,13 +4193,13 @@
         <v>281027</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>492</v>
@@ -4178,13 +4208,13 @@
         <v>512509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4229,13 @@
         <v>326772</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -4214,13 +4244,13 @@
         <v>278452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>598</v>
@@ -4229,13 +4259,13 @@
         <v>605224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4333,13 @@
         <v>419071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -4318,13 +4348,13 @@
         <v>525226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>877</v>
@@ -4333,13 +4363,13 @@
         <v>944297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4384,13 @@
         <v>603360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -4369,13 +4399,13 @@
         <v>517687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1051</v>
@@ -4384,13 +4414,13 @@
         <v>1121047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4488,13 @@
         <v>282203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>328</v>
@@ -4473,13 +4503,13 @@
         <v>356660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>584</v>
@@ -4488,13 +4518,13 @@
         <v>638862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4539,13 @@
         <v>477349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -4524,13 +4554,13 @@
         <v>428351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
@@ -4539,13 +4569,13 @@
         <v>905701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4631,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4613,13 +4643,13 @@
         <v>409553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>484</v>
@@ -4628,13 +4658,13 @@
         <v>545448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>890</v>
@@ -4643,13 +4673,13 @@
         <v>955000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4694,13 @@
         <v>528014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>475</v>
@@ -4679,13 +4709,13 @@
         <v>498331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>1001</v>
@@ -4694,13 +4724,13 @@
         <v>1026346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4798,13 @@
         <v>1392196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1628</v>
@@ -4783,13 +4813,13 @@
         <v>1772966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>2954</v>
@@ -4798,13 +4828,13 @@
         <v>3165163</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4849,13 @@
         <v>2002154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>1710</v>
@@ -4834,13 +4864,13 @@
         <v>1771576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>3615</v>
@@ -4849,13 +4879,13 @@
         <v>3773729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4941,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C13594B-1281-45DA-B166-996DD80616F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A112773D-C422-4116-B9A1-2FF29E88A186}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5086,13 @@
         <v>71976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>149</v>
@@ -5071,13 +5101,13 @@
         <v>82380</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -5086,13 +5116,13 @@
         <v>154356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5137,13 @@
         <v>30006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5122,13 +5152,13 @@
         <v>48353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -5137,13 +5167,13 @@
         <v>78359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5241,13 @@
         <v>397787</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>658</v>
@@ -5226,13 +5256,13 @@
         <v>438031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>1075</v>
@@ -5241,13 +5271,13 @@
         <v>835818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5292,13 @@
         <v>152036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -5277,13 +5307,13 @@
         <v>181936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>535</v>
@@ -5292,13 +5322,13 @@
         <v>333972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5396,13 @@
         <v>788995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>1011</v>
@@ -5381,13 +5411,13 @@
         <v>731527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>1698</v>
@@ -5396,13 +5426,13 @@
         <v>1520522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5447,13 @@
         <v>250253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -5432,13 +5462,13 @@
         <v>328552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>783</v>
@@ -5447,13 +5477,13 @@
         <v>578805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5551,13 @@
         <v>554927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>763</v>
@@ -5536,13 +5566,13 @@
         <v>689520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>1265</v>
@@ -5551,13 +5581,13 @@
         <v>1244446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5602,13 @@
         <v>173845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5587,13 +5617,13 @@
         <v>184851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -5602,13 +5632,13 @@
         <v>358696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5706,13 @@
         <v>737154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>1064</v>
@@ -5691,13 +5721,13 @@
         <v>788945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>1806</v>
@@ -5706,13 +5736,13 @@
         <v>1526099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5757,13 @@
         <v>228249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>498</v>
@@ -5742,13 +5772,13 @@
         <v>361487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -5757,13 +5787,13 @@
         <v>589736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5861,13 @@
         <v>2550838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>3645</v>
@@ -5846,28 +5876,28 @@
         <v>2730403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>6073</v>
       </c>
       <c r="N19" s="7">
-        <v>5281240</v>
+        <v>5281241</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5912,13 @@
         <v>834390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>1722</v>
@@ -5897,13 +5927,13 @@
         <v>1105178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>2670</v>
@@ -5912,13 +5942,13 @@
         <v>1939568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5990,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5974,7 +6004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F19A0A-970D-4BD1-88A5-F7D5AA3DE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C37BF9F-DC3E-45D6-B74D-E7A185826DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F28BC8-4DA4-4EEC-864E-722EE6E3CC92}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AA1221D9-0BDC-4125-87B0-6DAC8AE7F9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1300 +68,1075 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>60,89%</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A7FADC-1046-44E2-A7ED-D4A95701EC79}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6EB1AA-6956-41B8-B93B-25D54FFD9F6E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1891,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>336</v>
       </c>
       <c r="D4" s="7">
-        <v>38162</v>
+        <v>337075</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1906,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="I4" s="7">
-        <v>39962</v>
+        <v>433047</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1921,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>80</v>
+        <v>774</v>
       </c>
       <c r="N4" s="7">
-        <v>78124</v>
+        <v>770122</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1942,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="D5" s="7">
-        <v>77196</v>
+        <v>356937</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1957,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="I5" s="7">
-        <v>72793</v>
+        <v>255304</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1972,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>153</v>
+        <v>605</v>
       </c>
       <c r="N5" s="7">
-        <v>149989</v>
+        <v>612241</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1993,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2023,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>213</v>
+        <v>446</v>
       </c>
       <c r="D7" s="7">
-        <v>211085</v>
+        <v>468276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2061,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>255</v>
+        <v>592</v>
       </c>
       <c r="I7" s="7">
-        <v>259642</v>
+        <v>631638</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2076,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>468</v>
+        <v>1038</v>
       </c>
       <c r="N7" s="7">
-        <v>470727</v>
+        <v>1099915</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2097,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="D8" s="7">
-        <v>367569</v>
+        <v>493524</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2112,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I8" s="7">
-        <v>315954</v>
+        <v>336755</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2127,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>678</v>
+        <v>766</v>
       </c>
       <c r="N8" s="7">
-        <v>683523</v>
+        <v>830278</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2148,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2163,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2178,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2201,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D10" s="7">
-        <v>352613</v>
+        <v>334649</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2216,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I10" s="7">
-        <v>477952</v>
+        <v>435463</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2231,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="N10" s="7">
-        <v>830566</v>
+        <v>770112</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2252,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>567</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>609187</v>
+        <v>343860</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2267,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>463</v>
+        <v>249</v>
       </c>
       <c r="I11" s="7">
-        <v>490441</v>
+        <v>248378</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2282,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1030</v>
+        <v>566</v>
       </c>
       <c r="N11" s="7">
-        <v>1099627</v>
+        <v>592238</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2303,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2356,49 +2131,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>262</v>
+        <v>468</v>
       </c>
       <c r="D13" s="7">
-        <v>272500</v>
+        <v>437663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>361</v>
+        <v>631</v>
       </c>
       <c r="I13" s="7">
-        <v>353494</v>
+        <v>656897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>623</v>
+        <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>625994</v>
+        <v>1094560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,49 +2182,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>379</v>
+        <v>526</v>
       </c>
       <c r="D14" s="7">
-        <v>406009</v>
+        <v>504559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>330347</v>
+        <v>381715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>714</v>
+        <v>892</v>
       </c>
       <c r="N14" s="7">
-        <v>736356</v>
+        <v>886274</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2473,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2505,52 +2280,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>386</v>
+        <v>1574</v>
       </c>
       <c r="D16" s="7">
-        <v>365052</v>
+        <v>1577663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>503</v>
+        <v>2108</v>
       </c>
       <c r="I16" s="7">
-        <v>526053</v>
+        <v>2157045</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>889</v>
+        <v>3682</v>
       </c>
       <c r="N16" s="7">
-        <v>891105</v>
+        <v>3734709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -2562,10 +2337,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>608</v>
+        <v>1640</v>
       </c>
       <c r="D17" s="7">
-        <v>577170</v>
+        <v>1698880</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -2577,10 +2352,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>494</v>
+        <v>1189</v>
       </c>
       <c r="I17" s="7">
-        <v>512559</v>
+        <v>1222152</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2592,10 +2367,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1102</v>
+        <v>2829</v>
       </c>
       <c r="N17" s="7">
-        <v>1089729</v>
+        <v>2921032</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2604,7 +2379,7 @@
         <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2628,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2643,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2659,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1225</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1239413</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1609</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1657104</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2834</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2896516</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1989</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2037131</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1688</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1722094</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3677</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3759224</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2836,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738BCB88-80EA-409E-A5BF-458730C49354}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAC92C4-A115-44CF-A275-B53382645874}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2853,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>405</v>
       </c>
       <c r="D4" s="7">
-        <v>48108</v>
+        <v>425474</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="I4" s="7">
-        <v>55402</v>
+        <v>481347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>103</v>
+        <v>856</v>
       </c>
       <c r="N4" s="7">
-        <v>103510</v>
+        <v>906821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="D5" s="7">
-        <v>67657</v>
+        <v>277995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="I5" s="7">
-        <v>56503</v>
+        <v>215703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>118</v>
+        <v>468</v>
       </c>
       <c r="N5" s="7">
-        <v>124160</v>
+        <v>493698</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3071,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3086,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3109,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>236</v>
+        <v>508</v>
       </c>
       <c r="D7" s="7">
-        <v>253510</v>
+        <v>552726</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>270</v>
+        <v>668</v>
       </c>
       <c r="I7" s="7">
-        <v>286280</v>
+        <v>734789</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>506</v>
+        <v>1176</v>
       </c>
       <c r="N7" s="7">
-        <v>539790</v>
+        <v>1287515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>316</v>
+        <v>428</v>
       </c>
       <c r="D8" s="7">
-        <v>334194</v>
+        <v>465221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>298865</v>
+        <v>297395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>597</v>
+        <v>700</v>
       </c>
       <c r="N8" s="7">
-        <v>633059</v>
+        <v>762616</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3241,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3264,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D10" s="7">
-        <v>396575</v>
+        <v>380492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="I10" s="7">
-        <v>531672</v>
+        <v>525491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="N10" s="7">
-        <v>928247</v>
+        <v>905983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>574</v>
+        <v>348</v>
       </c>
       <c r="D11" s="7">
-        <v>621372</v>
+        <v>377131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>457</v>
+        <v>233</v>
       </c>
       <c r="I11" s="7">
-        <v>500512</v>
+        <v>251683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1031</v>
+        <v>581</v>
       </c>
       <c r="N11" s="7">
-        <v>1121884</v>
+        <v>628814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3396,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3419,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>266</v>
+        <v>520</v>
       </c>
       <c r="D13" s="7">
-        <v>300226</v>
+        <v>548259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>339</v>
+        <v>682</v>
       </c>
       <c r="I13" s="7">
-        <v>377355</v>
+        <v>720196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>605</v>
+        <v>1202</v>
       </c>
       <c r="N13" s="7">
-        <v>677581</v>
+        <v>1268455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="D14" s="7">
-        <v>457397</v>
+        <v>399480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="I14" s="7">
-        <v>399819</v>
+        <v>331705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>789</v>
+        <v>711</v>
       </c>
       <c r="N14" s="7">
-        <v>857216</v>
+        <v>731185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3536,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3551,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3568,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>390</v>
+        <v>1774</v>
       </c>
       <c r="D16" s="7">
-        <v>409984</v>
+        <v>1906951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>509</v>
+        <v>2273</v>
       </c>
       <c r="I16" s="7">
-        <v>537541</v>
+        <v>2461823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>899</v>
+        <v>4047</v>
       </c>
       <c r="N16" s="7">
-        <v>947525</v>
+        <v>4368774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>520</v>
+        <v>1435</v>
       </c>
       <c r="D17" s="7">
-        <v>537755</v>
+        <v>1519828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>494</v>
+        <v>1025</v>
       </c>
       <c r="I17" s="7">
-        <v>514360</v>
+        <v>1096486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1014</v>
+        <v>2460</v>
       </c>
       <c r="N17" s="7">
-        <v>1052115</v>
+        <v>2616314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3691,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3706,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3722,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1306</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1408405</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1652</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1788249</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2958</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3196654</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1903</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2018374</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1646</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1770060</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3549</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3788434</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3899,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6749857-68F8-404B-ADFB-1C2B65C30122}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FABD230-079A-4705-B431-B9A3BFB2AF72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3916,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="D4" s="7">
-        <v>49889</v>
+        <v>356577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>63</v>
+        <v>423</v>
       </c>
       <c r="I4" s="7">
-        <v>64606</v>
+        <v>441324</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>111</v>
+        <v>770</v>
       </c>
       <c r="N4" s="7">
-        <v>114494</v>
+        <v>797901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="D5" s="7">
-        <v>66657</v>
+        <v>318223</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="7">
         <v>243</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="7">
-        <v>52</v>
-      </c>
       <c r="I5" s="7">
-        <v>48754</v>
+        <v>231515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
-        <v>117</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>115412</v>
+        <v>549738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4134,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4149,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4172,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>222</v>
+        <v>499</v>
       </c>
       <c r="D7" s="7">
-        <v>231482</v>
+        <v>528413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>270</v>
+        <v>625</v>
       </c>
       <c r="I7" s="7">
-        <v>281027</v>
+        <v>684411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>492</v>
+        <v>1124</v>
       </c>
       <c r="N7" s="7">
-        <v>512509</v>
+        <v>1212824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="D8" s="7">
-        <v>326772</v>
+        <v>494018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="I8" s="7">
-        <v>278452</v>
+        <v>358502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>598</v>
+        <v>804</v>
       </c>
       <c r="N8" s="7">
-        <v>605224</v>
+        <v>852520</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4289,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4304,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4327,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="D10" s="7">
-        <v>419071</v>
+        <v>369005</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="I10" s="7">
-        <v>525226</v>
+        <v>471041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>877</v>
+        <v>771</v>
       </c>
       <c r="N10" s="7">
-        <v>944297</v>
+        <v>840045</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>557</v>
+        <v>355</v>
       </c>
       <c r="D11" s="7">
-        <v>603360</v>
+        <v>390547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="I11" s="7">
-        <v>517687</v>
+        <v>313970</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>1051</v>
+        <v>661</v>
       </c>
       <c r="N11" s="7">
-        <v>1121047</v>
+        <v>704518</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4444,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4459,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4482,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>256</v>
+        <v>519</v>
       </c>
       <c r="D13" s="7">
-        <v>282203</v>
+        <v>518639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>328</v>
+        <v>590</v>
       </c>
       <c r="I13" s="7">
-        <v>356660</v>
+        <v>662561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
-        <v>584</v>
+        <v>1109</v>
       </c>
       <c r="N13" s="7">
-        <v>638862</v>
+        <v>1181200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="D14" s="7">
-        <v>477349</v>
+        <v>418928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="I14" s="7">
-        <v>428351</v>
+        <v>381218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>848</v>
+        <v>782</v>
       </c>
       <c r="N14" s="7">
-        <v>905701</v>
+        <v>800146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4614,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4631,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>406</v>
+        <v>1706</v>
       </c>
       <c r="D16" s="7">
-        <v>409553</v>
+        <v>1772634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>484</v>
+        <v>2068</v>
       </c>
       <c r="I16" s="7">
-        <v>545448</v>
+        <v>2259337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>890</v>
+        <v>3774</v>
       </c>
       <c r="N16" s="7">
-        <v>955000</v>
+        <v>4031970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>526</v>
+        <v>1525</v>
       </c>
       <c r="D17" s="7">
-        <v>528014</v>
+        <v>1621716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>475</v>
+        <v>1270</v>
       </c>
       <c r="I17" s="7">
-        <v>498331</v>
+        <v>1285205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>1001</v>
+        <v>2795</v>
       </c>
       <c r="N17" s="7">
-        <v>1026346</v>
+        <v>2906922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4769,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4785,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1326</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1392196</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1628</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1772966</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2954</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3165163</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1905</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2002154</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1710</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1771576</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3615</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3773729</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4962,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A112773D-C422-4116-B9A1-2FF29E88A186}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9288F-092A-4123-9EDB-0B3FF7D19E54}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4979,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="D4" s="7">
-        <v>71976</v>
+        <v>284071</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>149</v>
+        <v>665</v>
       </c>
       <c r="I4" s="7">
-        <v>82380</v>
+        <v>330829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
-        <v>229</v>
+        <v>1022</v>
       </c>
       <c r="N4" s="7">
-        <v>154356</v>
+        <v>614901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="D5" s="7">
-        <v>30006</v>
+        <v>351370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
-        <v>94</v>
+        <v>576</v>
       </c>
       <c r="I5" s="7">
-        <v>48353</v>
+        <v>394501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>132</v>
+        <v>949</v>
       </c>
       <c r="N5" s="7">
-        <v>78359</v>
+        <v>745871</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5197,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5212,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5235,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="D7" s="7">
-        <v>397787</v>
+        <v>391011</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="I7" s="7">
-        <v>438031</v>
+        <v>473577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>1075</v>
+        <v>1234</v>
       </c>
       <c r="N7" s="7">
-        <v>835818</v>
+        <v>864588</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>195</v>
+        <v>530</v>
       </c>
       <c r="D8" s="7">
-        <v>152036</v>
+        <v>801853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>340</v>
+        <v>717</v>
       </c>
       <c r="I8" s="7">
-        <v>181936</v>
+        <v>485074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>535</v>
+        <v>1247</v>
       </c>
       <c r="N8" s="7">
-        <v>333972</v>
+        <v>1286928</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5352,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5367,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5390,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>687</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7">
-        <v>788995</v>
+        <v>289201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>1011</v>
+        <v>486</v>
       </c>
       <c r="I10" s="7">
-        <v>731527</v>
+        <v>509113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
-        <v>1698</v>
+        <v>781</v>
       </c>
       <c r="N10" s="7">
-        <v>1520522</v>
+        <v>798314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>250253</v>
+        <v>415479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="I11" s="7">
-        <v>328552</v>
+        <v>424253</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>783</v>
+        <v>942</v>
       </c>
       <c r="N11" s="7">
-        <v>578805</v>
+        <v>839732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5507,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5522,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5545,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="D13" s="7">
-        <v>554927</v>
+        <v>354490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="I13" s="7">
-        <v>689520</v>
+        <v>465298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
-        <v>1265</v>
+        <v>1157</v>
       </c>
       <c r="N13" s="7">
-        <v>1244446</v>
+        <v>819789</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>174</v>
+        <v>598</v>
       </c>
       <c r="D14" s="7">
-        <v>173845</v>
+        <v>572341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
-        <v>284</v>
+        <v>813</v>
       </c>
       <c r="I14" s="7">
-        <v>184851</v>
+        <v>629634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>458</v>
+        <v>1411</v>
       </c>
       <c r="N14" s="7">
-        <v>358696</v>
+        <v>1201974</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5662,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5677,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5694,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>742</v>
+        <v>1494</v>
       </c>
       <c r="D16" s="7">
-        <v>737154</v>
+        <v>1318774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>1064</v>
+        <v>2700</v>
       </c>
       <c r="I16" s="7">
-        <v>788945</v>
+        <v>1778817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
-        <v>1806</v>
+        <v>4194</v>
       </c>
       <c r="N16" s="7">
-        <v>1526099</v>
+        <v>3097592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>264</v>
+        <v>1882</v>
       </c>
       <c r="D17" s="7">
-        <v>228249</v>
+        <v>2141043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
-        <v>498</v>
+        <v>2667</v>
       </c>
       <c r="I17" s="7">
-        <v>361487</v>
+        <v>1933463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>762</v>
+        <v>4549</v>
       </c>
       <c r="N17" s="7">
-        <v>589736</v>
+        <v>4074505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5817,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5832,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5848,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2428</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2550838</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3645</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2730403</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6073</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5281241</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>948</v>
-      </c>
-      <c r="D20" s="7">
-        <v>834390</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1722</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1105178</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2670</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1939568</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
